--- a/medicine/Psychotrope/Prosecco_di_Conegliano_Valdobbiadene/Prosecco_di_Conegliano_Valdobbiadene.xlsx
+++ b/medicine/Psychotrope/Prosecco_di_Conegliano_Valdobbiadene/Prosecco_di_Conegliano_Valdobbiadene.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Prosecco di Conegliano - Valdobbiadene  est un vignoble italien, produit dans la région Vénétie, doté d'une appellation DOC depuis le 2 avril 1969. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -513,7 +525,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent rive gauche du Piave en province de Trévise dans les communes de Cison di Valmarino, Colle Umberto, Conegliano, Farra di Soligo, Follina, Miane, Pieve di Soligo, Refrontolo, San Pietro di Feletto, San Vendemiano, Susegana, Tarzo, Valdobbiadene, Vidor et Vittorio Veneto.  Le vignoble est connu pour ses vins mousseux et il se recoupe avec la zone de production des Colli di Conegliano.
 </t>
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : jaune paille plus ou moins intense.
 odeur : vineux, agréablement parfumé, caractéristique, en version doux très fruité
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,7 +622,9 @@
           <t>Association de plats conseillée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>À l'apéritif
 En cocktail avec du Campari : le Spritz</t>
@@ -635,7 +655,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Province, saison, volume en hectolitres :'
 Trévise (1990/91) : 178 464,27
